--- a/newlyexportedshp/Bonaire_Survey2.xlsx
+++ b/newlyexportedshp/Bonaire_Survey2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\OneDrive\Physical Accessibility-Bonaire GIS Analysis\Primary Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\My Lab\Bonaire\BonaireWebMap\newlyexportedshp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5F68F840-7916-4B7F-ADA1-9DB0C5F36327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAD7AD9-A534-4F72-83C7-86FD0C72ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bonaire_Survey2" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Travel</t>
   </si>
   <si>
@@ -119,12 +116,15 @@
   </si>
   <si>
     <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>Agegroup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,10 +958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -973,42 +975,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -1019,22 +1021,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1045,22 +1047,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -1071,22 +1073,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -1097,22 +1099,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -1123,22 +1125,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1149,22 +1151,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1175,22 +1177,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1201,22 +1203,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1227,22 +1229,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1253,22 +1255,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1279,22 +1281,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1305,22 +1307,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1331,22 +1333,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1357,22 +1359,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1383,22 +1385,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1409,22 +1411,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1435,22 +1437,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -1461,22 +1463,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -1487,22 +1489,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -1513,22 +1515,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1539,22 +1541,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1565,22 +1567,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1591,22 +1593,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1617,22 +1619,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1643,22 +1645,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -1669,22 +1671,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1695,22 +1697,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -1721,22 +1723,22 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1747,22 +1749,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1773,22 +1775,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1799,22 +1801,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -1825,22 +1827,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -1851,22 +1853,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -1877,22 +1879,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -1903,22 +1905,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -1929,22 +1931,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
         <v>26</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -1955,22 +1957,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -1981,22 +1983,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -2007,22 +2009,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>21</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -2033,22 +2035,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -2059,22 +2061,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -2085,22 +2087,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2111,22 +2113,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45">
         <v>7</v>
@@ -2137,22 +2139,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
         <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>23</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2163,22 +2165,22 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2189,22 +2191,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2215,22 +2217,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -2241,22 +2243,22 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -2267,22 +2269,22 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2293,22 +2295,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>7</v>
@@ -2319,22 +2321,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2345,22 +2347,22 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -2371,22 +2373,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55">
         <v>6</v>
@@ -2397,22 +2399,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
         <v>26</v>
       </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2423,22 +2425,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -2449,22 +2451,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -2475,22 +2477,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59">
         <v>9</v>
@@ -2501,22 +2503,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G60">
         <v>10</v>
@@ -2527,22 +2529,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
         <v>17</v>
       </c>
-      <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -2553,22 +2555,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
         <v>26</v>
       </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2579,22 +2581,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
         <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>22</v>
       </c>
       <c r="G63">
         <v>9</v>
@@ -2605,22 +2607,22 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64">
         <v>10</v>
@@ -2631,22 +2633,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2657,22 +2659,22 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
         <v>17</v>
       </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66">
         <v>10</v>
@@ -2683,22 +2685,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67">
         <v>10</v>
@@ -2709,22 +2711,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68">
         <v>10</v>
@@ -2735,22 +2737,22 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69">
         <v>10</v>
@@ -2761,22 +2763,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
         <v>17</v>
       </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70">
         <v>10</v>
@@ -2787,22 +2789,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71">
         <v>8</v>
@@ -2813,22 +2815,22 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
         <v>14</v>
       </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72">
         <v>10</v>
@@ -2839,22 +2841,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73">
         <v>10</v>
@@ -2865,22 +2867,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74">
         <v>6</v>
@@ -2891,22 +2893,22 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75">
         <v>10</v>
@@ -2917,22 +2919,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76">
         <v>7</v>
@@ -2943,22 +2945,22 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
         <v>21</v>
-      </c>
-      <c r="F77" t="s">
-        <v>22</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -2969,22 +2971,22 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78">
         <v>10</v>
@@ -2995,22 +2997,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
         <v>14</v>
       </c>
-      <c r="C79" t="s">
-        <v>15</v>
-      </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G79">
         <v>9</v>
@@ -3021,22 +3023,22 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G80">
         <v>8</v>
@@ -3047,22 +3049,22 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -3073,22 +3075,22 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="C82" t="s">
-        <v>15</v>
-      </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82">
         <v>8</v>
